--- a/data/ANT.xlsx
+++ b/data/ANT.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANT 202.</t>
+          <t>ANT 202.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANT 202 or ANT 309.</t>
+          <t>ANT 202 or ANT 309.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANT 309 or ANT 310.</t>
+          <t>ANT 309 or ANT 310.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANT 201, ANT 202 or ANT 309.</t>
+          <t>ANT 201, ANT 202 or ANT 309.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANT 202.</t>
+          <t>ANT 202.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sophomore standing; ANT 201 or GEOG 150.</t>
+          <t>Sophomore standing; ANT 201 or GEOG 150.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area D3; and one of the following: ANT 201, ANT 202, ANT 250, ISLA 123, any ES course, any WGS course.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area D3; and one of the ANT 201, ANT 202, ANT 250, ISLA 123, any ES course, any WGS course.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Junior standing, ANT 201, and one of the following: ANT 250, BIO 160, or BIO 263; or graduate standing.</t>
+          <t>Junior standing, ANT 201, and one of the ANT 250, BIO 160, or BIO 263; or graduate standing.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; and ANT 201. Recommended: ANT 250.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; and ANT 201.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANT 250.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; and completion of GE Area D3. Recommended: ANT 201.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; and completion of GE Area D3.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANT 201.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; GE Area D3; and one of the following: ANT 201, ISLA 123, any course in Ethnic Studies, any course in Women's and Gender Studies.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; GE Area D3; and one of the ANT 201, ISLA 123, any course in Ethnic Studies, any course in Women's and Gender Studies.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ANT 384 or ANT 464; senior standing; and/or consent of instructor.</t>
+          <t>ANT 384 or ANT 464; senior standing; and/or consent of instructor.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -986,6 +1406,21 @@
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
